--- a/Horario_Todos_lunes.xlsx
+++ b/Horario_Todos_lunes.xlsx
@@ -31,7 +31,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -56,18 +56,6 @@
         <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EE82EE"/>
-        <bgColor rgb="00EE82EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090EE90"/>
-        <bgColor rgb="0090EE90"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -81,13 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -471,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,32 +468,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Intervalos</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ABIGAIL LUZ HUANUCO VICUÃ‘A</t>
+          <t>HUANUCO VICUÃ‘A</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EMELYN HEIDY HUAMANI QUICANO</t>
+          <t>HUAMANI QUICANO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>JAMES JESUS CARHUANCHO RAYMUNDO</t>
+          <t>CARHUANCHO RAYMUNDO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA EVANGELISTA INFANTES</t>
+          <t>EVANGELISTA INFANTES</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ALVARO RAUL ORIHUELA PUMACCAHUA</t>
+          <t>ORIHUELA PUMACCAHUA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -517,19 +503,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06:00 - 06:15</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABIGAIL LUZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EMELYN HEIDY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JAMES JESUS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ALVARO RAUL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:15 - 06:30</t>
+          <t>06:00 - 06:15</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -539,7 +543,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:30 - 06:45</t>
+          <t>06:15 - 06:30</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -549,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:45 - 07:00</t>
+          <t>06:30 - 06:45</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -559,22 +563,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:00 - 07:15</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>06:45 - 07:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07:15 - 07:30</t>
+          <t>07:00 - 07:15</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -589,7 +588,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07:30 - 07:45</t>
+          <t>07:15 - 07:30</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -604,7 +603,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07:45 - 08:00</t>
+          <t>07:30 - 07:45</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -619,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08:00 - 08:15</t>
+          <t>07:45 - 08:00</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -634,7 +633,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08:15 - 08:30</t>
+          <t>08:00 - 08:15</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -649,7 +648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08:30 - 08:45</t>
+          <t>08:15 - 08:30</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -664,7 +663,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:45 - 09:00</t>
+          <t>08:30 - 08:45</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -679,7 +678,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09:00 - 09:15</t>
+          <t>08:45 - 09:00</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -694,7 +693,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:15 - 09:30</t>
+          <t>09:00 - 09:15</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -709,7 +708,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:30 - 09:45</t>
+          <t>09:15 - 09:30</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -724,7 +723,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09:45 - 10:00</t>
+          <t>09:30 - 09:45</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -739,7 +738,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:00 - 10:15</t>
+          <t>09:45 - 10:00</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -754,7 +753,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10:15 - 10:30</t>
+          <t>10:00 - 10:15</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -769,7 +768,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10:30 - 10:45</t>
+          <t>10:15 - 10:30</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -784,10 +783,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:45 - 11:00</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+          <t>10:30 - 10:45</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -799,7 +798,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11:00 - 11:15</t>
+          <t>10:45 - 11:00</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -814,7 +813,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11:15 - 11:30</t>
+          <t>11:00 - 11:15</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -829,7 +828,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:30 - 11:45</t>
+          <t>11:15 - 11:30</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -844,7 +843,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11:45 - 12:00</t>
+          <t>11:30 - 11:45</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -859,7 +858,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12:00 - 12:15</t>
+          <t>11:45 - 12:00</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -874,7 +873,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12:15 - 12:30</t>
+          <t>12:00 - 12:15</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -889,7 +888,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12:30 - 12:45</t>
+          <t>12:15 - 12:30</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -904,7 +903,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12:45 - 13:00</t>
+          <t>12:30 - 12:45</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -919,7 +918,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00 - 13:15</t>
+          <t>12:45 - 13:00</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -934,7 +933,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13:15 - 13:30</t>
+          <t>13:00 - 13:15</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -949,7 +948,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:30 - 13:45</t>
+          <t>13:15 - 13:30</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -964,7 +963,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13:45 - 14:00</t>
+          <t>13:30 - 13:45</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -979,7 +978,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14:00 - 14:15</t>
+          <t>13:45 - 14:00</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -994,7 +993,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14:15 - 14:30</t>
+          <t>14:00 - 14:15</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -1009,10 +1008,10 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14:30 - 14:45</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+          <t>14:15 - 14:30</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -1024,7 +1023,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14:45 - 15:00</t>
+          <t>14:30 - 14:45</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -1039,7 +1038,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15:00 - 15:15</t>
+          <t>14:45 - 15:00</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -1054,7 +1053,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15:15 - 15:30</t>
+          <t>15:00 - 15:15</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -1069,7 +1068,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15:30 - 15:45</t>
+          <t>15:15 - 15:30</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -1084,7 +1083,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:45 - 16:00</t>
+          <t>15:30 - 15:45</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -1099,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16:00 - 16:15</t>
+          <t>15:45 - 16:00</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
@@ -1114,7 +1113,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16:15 - 16:30</t>
+          <t>16:00 - 16:15</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
@@ -1129,7 +1128,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16:30 - 16:45</t>
+          <t>16:15 - 16:30</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
@@ -1144,7 +1143,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:45 - 17:00</t>
+          <t>16:30 - 16:45</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
@@ -1159,7 +1158,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17:00 - 17:15</t>
+          <t>16:45 - 17:00</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
@@ -1174,7 +1173,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17:15 - 17:30</t>
+          <t>17:00 - 17:15</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
@@ -1189,7 +1188,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>17:30 - 17:45</t>
+          <t>17:15 - 17:30</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
@@ -1204,7 +1203,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17:45 - 18:00</t>
+          <t>17:30 - 17:45</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
@@ -1219,7 +1218,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18:00 - 18:15</t>
+          <t>17:45 - 18:00</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
@@ -1234,10 +1233,10 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18:15 - 18:30</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -1249,7 +1248,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18:30 - 18:45</t>
+          <t>18:15 - 18:30</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
@@ -1264,7 +1263,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18:45 - 19:00</t>
+          <t>18:30 - 18:45</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
@@ -1279,7 +1278,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:00 - 19:15</t>
+          <t>18:45 - 19:00</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
@@ -1287,19 +1286,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:15 - 19:30</t>
+          <t>19:00 - 19:15</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
@@ -1319,7 +1313,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:30 - 19:45</t>
+          <t>19:15 - 19:30</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
@@ -1339,7 +1333,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45 - 20:00</t>
+          <t>19:30 - 19:45</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
@@ -1359,7 +1353,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00 - 20:15</t>
+          <t>19:45 - 20:00</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
@@ -1379,7 +1373,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20:15 - 20:30</t>
+          <t>20:00 - 20:15</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
@@ -1399,7 +1393,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20:30 - 20:45</t>
+          <t>20:15 - 20:30</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
@@ -1419,7 +1413,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20:45 - 21:00</t>
+          <t>20:30 - 20:45</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
@@ -1439,7 +1433,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21:00 - 21:15</t>
+          <t>20:45 - 21:00</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
@@ -1459,7 +1453,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21:15 - 21:30</t>
+          <t>21:00 - 21:15</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
@@ -1479,7 +1473,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21:30 - 21:45</t>
+          <t>21:15 - 21:30</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
@@ -1499,7 +1493,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21:45 - 22:00</t>
+          <t>21:30 - 21:45</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
@@ -1519,7 +1513,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22:00 - 22:15</t>
+          <t>21:45 - 22:00</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
@@ -1528,13 +1527,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22:15 - 22:30</t>
+          <t>22:00 - 22:15</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
@@ -1549,7 +1548,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22:30 - 22:45</t>
+          <t>22:15 - 22:30</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -1564,17 +1563,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22:45 - 23:00</t>
+          <t>22:30 - 22:45</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>23:00 - 23:15</t>
+          <t>22:45 - 23:00</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -1584,7 +1588,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23:15 - 23:30</t>
+          <t>23:00 - 23:15</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -1594,7 +1598,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23:30 - 23:45</t>
+          <t>23:15 - 23:30</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -1604,10 +1608,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>23:30 - 23:45</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>23:45 - 24:00</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="G74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1622,7 +1636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,67 +1647,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Intervalos</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>KELLY MIREYA CASTILLO MORENO</t>
+          <t>CASTILLO MORENO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA ROMERO HAÃ‘ARI</t>
+          <t>ROMERO HAÃ‘ARI</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>JOSE LUIS RODRIGUEZ ALVAREZ</t>
+          <t>RODRIGUEZ ALVAREZ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ELIZABETH RAIME QUISPE</t>
+          <t>RAIME QUISPE</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>SEAN ANDRE ATO PECHO</t>
+          <t>ATO PECHO</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>KATHERINE LIZBET CASTILLO GARCIA</t>
+          <t>YAPUCHURA APAZA</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>RENAN YAPUCHURA APAZA</t>
+          <t>PACULIA ESTANISLAO</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER PACULIA ESTANISLAO</t>
+          <t>SALVATIERRA PAREJA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>MARCO ANTONIO SALVATIERRA PAREJA</t>
+          <t>LOPEZ MALCA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>PILAR SINTYA RAMIREZ COTERA</t>
+          <t>RAMIREZ COTERA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH LINARES IBARRA</t>
+          <t>LINARES IBARRA</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA CALLAÃ‘AUPA HUAMAN</t>
+          <t>CALLAÃ‘AUPA HUAMAN</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -1703,19 +1717,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06:00 - 06:15</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KELLY MIREYA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>VENUS ANUSKA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SEAN ANDRE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENAN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>LUIS ALEXANDER</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>YENIFER ANGELICA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PILAR SINTYA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>XIOMARA LIZBETH</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:15 - 06:30</t>
+          <t>06:00 - 06:15</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -1725,7 +1792,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:30 - 06:45</t>
+          <t>06:15 - 06:30</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1735,7 +1802,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:45 - 07:00</t>
+          <t>06:30 - 06:45</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -1745,7 +1812,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:00 - 07:15</t>
+          <t>06:45 - 07:00</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1755,7 +1822,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07:15 - 07:30</t>
+          <t>07:00 - 07:15</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1765,22 +1832,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07:30 - 07:45</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>07:15 - 07:30</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07:45 - 08:00</t>
+          <t>07:30 - 07:45</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1795,7 +1857,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08:00 - 08:15</t>
+          <t>07:45 - 08:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1810,7 +1872,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08:15 - 08:30</t>
+          <t>08:00 - 08:15</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1825,7 +1887,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08:30 - 08:45</t>
+          <t>08:15 - 08:30</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1840,7 +1902,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:45 - 09:00</t>
+          <t>08:30 - 08:45</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1855,7 +1917,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09:00 - 09:15</t>
+          <t>08:45 - 09:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1870,7 +1932,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:15 - 09:30</t>
+          <t>09:00 - 09:15</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1878,19 +1940,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:30 - 09:45</t>
+          <t>09:15 - 09:30</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1910,7 +1967,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09:45 - 10:00</t>
+          <t>09:30 - 09:45</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1930,7 +1987,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:00 - 10:15</t>
+          <t>09:45 - 10:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1943,19 +2000,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10:15 - 10:30</t>
+          <t>10:00 - 10:15</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1973,19 +2025,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10:30 - 10:45</t>
+          <t>10:15 - 10:30</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -2015,7 +2062,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:45 - 11:00</t>
+          <t>10:30 - 10:45</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2045,7 +2092,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11:00 - 11:15</t>
+          <t>10:45 - 11:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2075,7 +2122,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11:15 - 11:30</t>
+          <t>11:00 - 11:15</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -2094,13 +2146,13 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:30 - 11:45</t>
+          <t>11:15 - 11:30</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -2118,19 +2170,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11:45 - 12:00</t>
+          <t>11:30 - 11:45</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -2160,7 +2207,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12:00 - 12:15</t>
+          <t>11:45 - 12:00</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2190,7 +2237,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12:15 - 12:30</t>
+          <t>12:00 - 12:15</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2220,7 +2267,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12:30 - 12:45</t>
+          <t>12:15 - 12:30</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -2250,7 +2297,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12:45 - 13:00</t>
+          <t>12:30 - 12:45</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -2280,7 +2327,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00 - 13:15</t>
+          <t>12:45 - 13:00</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -2299,13 +2351,13 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13:15 - 13:30</t>
+          <t>13:00 - 13:15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -2330,7 +2382,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:30 - 13:45</t>
+          <t>13:15 - 13:30</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -2355,7 +2407,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13:45 - 14:00</t>
+          <t>13:30 - 13:45</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2369,13 +2426,18 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14:00 - 14:15</t>
+          <t>13:45 - 14:00</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2383,24 +2445,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14:15 - 14:30</t>
+          <t>14:00 - 14:15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2413,19 +2465,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14:30 - 14:45</t>
+          <t>14:15 - 14:30</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2438,19 +2485,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14:45 - 15:00</t>
+          <t>14:30 - 14:45</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2463,19 +2505,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15:00 - 15:15</t>
+          <t>14:45 - 15:00</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2488,27 +2525,22 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15:15 - 15:30</t>
+          <t>15:00 - 15:15</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -2520,7 +2552,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15:30 - 15:45</t>
+          <t>15:15 - 15:30</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -2528,29 +2560,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:45 - 16:00</t>
+          <t>15:30 - 15:45</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -2580,7 +2597,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16:00 - 16:15</t>
+          <t>15:45 - 16:00</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -2610,7 +2627,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16:15 - 16:30</t>
+          <t>16:00 - 16:15</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -2640,7 +2657,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16:30 - 16:45</t>
+          <t>16:15 - 16:30</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2670,7 +2687,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:45 - 17:00</t>
+          <t>16:30 - 16:45</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -2700,7 +2717,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17:00 - 17:15</t>
+          <t>16:45 - 17:00</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -2730,7 +2747,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17:15 - 17:30</t>
+          <t>17:00 - 17:15</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -2760,7 +2777,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>17:30 - 17:45</t>
+          <t>17:15 - 17:30</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2790,7 +2807,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17:45 - 18:00</t>
+          <t>17:30 - 17:45</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -2820,7 +2837,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18:00 - 18:15</t>
+          <t>17:45 - 18:00</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -2850,7 +2867,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18:15 - 18:30</t>
+          <t>18:00 - 18:15</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -2880,7 +2897,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18:30 - 18:45</t>
+          <t>18:15 - 18:30</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -2910,7 +2927,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18:45 - 19:00</t>
+          <t>18:30 - 18:45</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -2940,7 +2957,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:00 - 19:15</t>
+          <t>18:45 - 19:00</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -2970,7 +2987,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:15 - 19:30</t>
+          <t>19:00 - 19:15</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -2983,29 +3000,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:30 - 19:45</t>
+          <t>19:15 - 19:30</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -3013,11 +3025,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3034,13 +3041,13 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45 - 20:00</t>
+          <t>19:30 - 19:45</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -3048,11 +3055,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3069,13 +3071,13 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00 - 20:15</t>
+          <t>19:45 - 20:00</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -3083,11 +3085,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3104,13 +3101,13 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20:15 - 20:30</t>
+          <t>20:00 - 20:15</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -3118,11 +3115,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3139,13 +3131,13 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20:30 - 20:45</t>
+          <t>20:15 - 20:30</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
@@ -3153,11 +3145,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3174,13 +3161,13 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20:45 - 21:00</t>
+          <t>20:30 - 20:45</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
@@ -3188,11 +3175,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3209,13 +3191,13 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21:00 - 21:15</t>
+          <t>20:45 - 21:00</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -3223,11 +3205,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3244,13 +3221,13 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21:15 - 21:30</t>
+          <t>21:00 - 21:15</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -3258,11 +3235,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3279,13 +3251,13 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21:30 - 21:45</t>
+          <t>21:15 - 21:30</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
@@ -3293,11 +3265,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3314,13 +3281,13 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21:45 - 22:00</t>
+          <t>21:30 - 21:45</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
@@ -3328,11 +3295,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3349,13 +3311,13 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22:00 - 22:15</t>
+          <t>21:45 - 22:00</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -3363,11 +3325,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3384,13 +3341,13 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22:15 - 22:30</t>
+          <t>22:00 - 22:15</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -3398,11 +3355,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3419,13 +3371,13 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22:30 - 22:45</t>
+          <t>22:15 - 22:30</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
@@ -3433,11 +3385,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3454,13 +3401,13 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22:45 - 23:00</t>
+          <t>22:30 - 22:45</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
@@ -3468,11 +3415,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -3489,23 +3431,43 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>23:00 - 23:15</t>
+          <t>22:45 - 23:00</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23:15 - 23:30</t>
+          <t>23:00 - 23:15</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -3515,7 +3477,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23:30 - 23:45</t>
+          <t>23:15 - 23:30</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -3525,10 +3487,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>23:30 - 23:45</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>23:45 - 24:00</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="N74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3543,7 +3515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH73"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3554,239 +3526,452 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Intervalos</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATHINA HUAYANAY VELASCO</t>
+          <t>QUISPE MONDRAGON</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>JUAN ALFONSO QUISPE MONDRAGON</t>
+          <t>FLORES CANDELA</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>GLADYS YANETH ACHA MONDRAGON</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ANTONY MAURICIO QUISPE MENDOZA</t>
+          <t>SOTO VELAZCO</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MIRIAN LUZ YANQUI BRAVO</t>
+          <t>ACHA MONDRAGON</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>VENUS ROMERO APO</t>
+          <t>HERRERA RIVEROS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>EMIR ALESSANDRO SOTO VELAZCO</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ANGELI ESTRELLA CARBAJAL AGUIRRE</t>
+          <t>MARTINEZ PAZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>VALERIA ESTEFANY AYQUIPA MONTENEGRO</t>
+          <t>TOMAYCONZA QUISPE</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>CIELO CRISTHINA RUIZ SANTOS</t>
+          <t>HUAMAN HUAMANI</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>CYNTHIA ANGELLINE QUIQUIA MALLQUI</t>
+          <t>QUIQUIA MALLQUI</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>ANDREA ESTEFANY CUSI QUISPE</t>
+          <t>HUAYANAY VELASCO</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>RAQUEL YOLANDA HERRERA RIVEROS</t>
+          <t>RUIZ SANTOS</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>JHOSSEP ANGELO IDELFONSO MOTTA</t>
+          <t>VEGA CARDENAS</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>NANCY FIORELLA TITO LAURA</t>
+          <t>CUSI QUISPE</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>MIRIAN RAQUEL MUÃ‘OZ SOTOMAYOR</t>
+          <t>IDELFONSO MOTTA</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>SUSAN NAYELLI HEREDIA CAHUAYA</t>
+          <t>JIMENEZ TORERO</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>LIZBETH CASTILLO APO</t>
+          <t>MUÃ‘OZ SOTOMAYOR</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>ANGIE LUCERO ALVITE CORNEJO</t>
+          <t>ALVITE CORNEJO</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>SHADIA SHAMIRA LA ROSA EUSEBIO</t>
+          <t>LOPEZ SANCHEZ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>ENZO MANUEL CASAPAICO RIVERA</t>
+          <t>GARRIDO SOTO</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>LUIS PACULIA APO</t>
+          <t>NAVARRO MORENO</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA LEON TICONA</t>
+          <t>LA ROSA EUSEBIO</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>DREYDI BELINDA HUAMANI LOPEZ</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>SEBASTIAN BRENIS LARTIGA</t>
+          <t>BRENIS LARTIGA</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>JOSE ANGELO SICHA JORGE</t>
+          <t>LEON TICONA</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>ARIADNA NAYLEA NAVARRO MORENO</t>
+          <t>BARRIENTOS JERI</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>MILAGROS NICOL BARRIENTOS JERI</t>
+          <t>LIZARME HUINCHO</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>RAUL FERNANDO BONILLA SANCHEZ</t>
+          <t>ROA ZARATE</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>BRIYITH JASUMI LIZARME HUINCHO</t>
+          <t>INGA DELGADO</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>NELLY ANDREA LOPEZ SANCHEZ</t>
+          <t>CASAPAICO RIVERA</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>MARIA CALLAÃ‘AUPA APO</t>
+          <t>SICHA JORGE</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
+          <t>PEREZ GORMAS</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>HEREDIA CAHUAYA</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>OLIVERA PILCO</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>#</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06:00 - 06:15</t>
-        </is>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JUAN ALFONSO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CRISTHIAN JESUS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KELLY CASTILLO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EMIR ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>GLADYS YANETH</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RAQUEL YOLANDA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VENUS ROMERO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ROCIO ESPERANZA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CYNTHIA ANGELLINE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CIELO CRISTHINA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>ANGELICA LOURDES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ANDREA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NELLY ANDREA</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>LUIS PACULIA</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>SUSAN NAYELLI</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>CAMILA MILAGROS</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>XIOMARA LINARES</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>MARIA CALLAÃ‘AUPA</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>PILAR RAMIREZ</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:15 - 06:30</t>
-        </is>
-      </c>
-      <c r="AH3" t="n">
+          <t>06:00 - 06:15</t>
+        </is>
+      </c>
+      <c r="AO3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:30 - 06:45</t>
-        </is>
-      </c>
-      <c r="AH4" t="n">
+          <t>06:15 - 06:30</t>
+        </is>
+      </c>
+      <c r="AO4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:45 - 07:00</t>
-        </is>
-      </c>
-      <c r="AH5" t="n">
+          <t>06:30 - 06:45</t>
+        </is>
+      </c>
+      <c r="AO5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:00 - 07:15</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AH6" t="n">
-        <v>2</v>
+          <t>06:45 - 07:00</t>
+        </is>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07:15 - 07:30</t>
+          <t>07:00 - 07:15</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -3799,14 +3984,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH7" t="n">
+      <c r="AO7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07:30 - 07:45</t>
+          <t>07:15 - 07:30</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -3819,14 +4004,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH8" t="n">
+      <c r="AO8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07:45 - 08:00</t>
+          <t>07:30 - 07:45</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -3839,14 +4024,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH9" t="n">
-        <v>2</v>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08:00 - 08:15</t>
+          <t>07:45 - 08:00</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -3864,14 +4054,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH10" t="n">
+      <c r="AO10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08:15 - 08:30</t>
+          <t>08:00 - 08:15</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -3889,14 +4079,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH11" t="n">
-        <v>3</v>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08:30 - 08:45</t>
+          <t>08:15 - 08:30</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -3914,14 +4109,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH12" t="n">
-        <v>3</v>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:45 - 09:00</t>
+          <t>08:30 - 08:45</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -3939,14 +4139,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH13" t="n">
-        <v>3</v>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09:00 - 09:15</t>
+          <t>08:45 - 09:00</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -3969,14 +4179,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH14" t="n">
-        <v>4</v>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:15 - 09:30</t>
+          <t>09:00 - 09:15</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -4004,19 +4219,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AH15" t="n">
-        <v>6</v>
+      <c r="AO15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:30 - 09:45</t>
+          <t>09:15 - 09:30</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -4049,14 +4259,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH16" t="n">
-        <v>6</v>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09:45 - 10:00</t>
+          <t>09:30 - 09:45</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -4094,14 +4309,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH17" t="n">
+      <c r="AO17" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:00 - 10:15</t>
+          <t>09:45 - 10:00</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -4139,14 +4354,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH18" t="n">
+      <c r="AO18" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10:15 - 10:30</t>
+          <t>10:00 - 10:15</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -4189,14 +4404,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH19" t="n">
+      <c r="AO19" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10:30 - 10:45</t>
+          <t>10:15 - 10:30</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -4239,14 +4454,29 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH20" t="n">
-        <v>8</v>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:45 - 11:00</t>
+          <t>10:30 - 10:45</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -4289,14 +4519,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH21" t="n">
-        <v>8</v>
+      <c r="AO21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11:00 - 11:15</t>
+          <t>10:45 - 11:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -4339,14 +4569,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH22" t="n">
-        <v>8</v>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11:15 - 11:30</t>
+          <t>11:00 - 11:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -4404,19 +4644,14 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH23" t="n">
+      <c r="AO23" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:30 - 11:45</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>11:15 - 11:30</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -4469,14 +4704,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH24" t="n">
-        <v>11</v>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11:45 - 12:00</t>
+          <t>11:30 - 11:45</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -4529,19 +4774,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH25" t="n">
-        <v>10</v>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12:00 - 12:15</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>11:45 - 12:00</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -4589,19 +4839,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH26" t="n">
-        <v>10</v>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO26" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12:15 - 12:30</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>12:00 - 12:15</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -4654,24 +4909,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH27" t="n">
-        <v>11</v>
+      <c r="P27" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12:30 - 12:45</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>12:15 - 12:30</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
@@ -4719,24 +4974,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH28" t="n">
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO28" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12:45 - 13:00</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>12:30 - 12:45</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
@@ -4784,17 +5039,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH29" t="n">
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO29" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00 - 13:15</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
+          <t>12:45 - 13:00</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4844,24 +5109,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH30" t="n">
-        <v>10</v>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO30" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13:15 - 13:30</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>13:00 - 13:15</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr">
@@ -4909,14 +5169,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH31" t="n">
-        <v>11</v>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:30 - 13:45</t>
+          <t>13:15 - 13:30</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
@@ -4964,14 +5229,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH32" t="n">
-        <v>9</v>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="S32" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO32" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13:45 - 14:00</t>
+          <t>13:30 - 13:45</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
@@ -5019,14 +5294,29 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH33" t="n">
-        <v>9</v>
+      <c r="R33" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="S33" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO33" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14:00 - 14:15</t>
+          <t>13:45 - 14:00</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -5079,17 +5369,22 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH34" t="n">
-        <v>10</v>
+      <c r="T34" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO34" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14:15 - 14:30</t>
-        </is>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
+          <t>14:00 - 14:15</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5144,14 +5439,19 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH35" t="n">
+      <c r="AO35" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14:30 - 14:45</t>
+          <t>14:15 - 14:30</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="L36" s="3" t="inlineStr">
@@ -5199,22 +5499,17 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH36" t="n">
-        <v>9</v>
+      <c r="AO36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14:45 - 15:00</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M37" s="3" t="inlineStr">
+          <t>14:30 - 14:45</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5254,14 +5549,24 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH37" t="n">
+      <c r="U37" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO37" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15:00 - 15:15</t>
+          <t>14:45 - 15:00</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
         </is>
       </c>
       <c r="O38" s="3" t="inlineStr">
@@ -5299,22 +5604,17 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH38" t="n">
-        <v>7</v>
+      <c r="AO38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15:15 - 15:30</t>
-        </is>
-      </c>
-      <c r="O39" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P39" s="3" t="inlineStr">
+          <t>15:00 - 15:15</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5344,22 +5644,22 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH39" t="n">
+      <c r="V39" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO39" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15:30 - 15:45</t>
-        </is>
-      </c>
-      <c r="O40" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P40" s="3" t="inlineStr">
+          <t>15:15 - 15:30</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5399,22 +5699,17 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH40" t="n">
-        <v>9</v>
+      <c r="AO40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:45 - 16:00</t>
-        </is>
-      </c>
-      <c r="O41" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P41" s="3" t="inlineStr">
+          <t>15:30 - 15:45</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5454,22 +5749,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH41" t="n">
-        <v>9</v>
+      <c r="X41" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Y41" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16:00 - 16:15</t>
-        </is>
-      </c>
-      <c r="P42" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Q42" s="3" t="inlineStr">
+          <t>15:45 - 16:00</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5509,22 +5809,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH42" t="n">
-        <v>9</v>
+      <c r="Y42" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Z42" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16:15 - 16:30</t>
-        </is>
-      </c>
-      <c r="P43" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Q43" s="3" t="inlineStr">
+          <t>16:00 - 16:15</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5564,22 +5869,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH43" t="n">
-        <v>9</v>
+      <c r="Y43" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Z43" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16:30 - 16:45</t>
-        </is>
-      </c>
-      <c r="P44" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Q44" s="3" t="inlineStr">
+          <t>16:15 - 16:30</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5619,22 +5929,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH44" t="n">
-        <v>9</v>
+      <c r="Y44" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Z44" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:45 - 17:00</t>
-        </is>
-      </c>
-      <c r="P45" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Q45" s="3" t="inlineStr">
+          <t>16:30 - 16:45</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5674,17 +5989,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH45" t="n">
-        <v>9</v>
+      <c r="Y45" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="Z45" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17:00 - 17:15</t>
-        </is>
-      </c>
-      <c r="P46" s="3" t="inlineStr">
+          <t>16:45 - 17:00</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5734,17 +6059,17 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH46" t="n">
+      <c r="AO46" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17:15 - 17:30</t>
-        </is>
-      </c>
-      <c r="P47" s="3" t="inlineStr">
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5754,11 +6079,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S47" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="T47" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -5794,17 +6114,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH47" t="n">
-        <v>10</v>
+      <c r="AA47" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AB47" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO47" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>17:30 - 17:45</t>
-        </is>
-      </c>
-      <c r="P48" s="3" t="inlineStr">
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5814,11 +6144,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S48" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="T48" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -5854,17 +6179,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH48" t="n">
-        <v>10</v>
+      <c r="AA48" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AB48" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO48" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17:45 - 18:00</t>
-        </is>
-      </c>
-      <c r="P49" s="3" t="inlineStr">
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5874,16 +6209,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S49" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="T49" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -5919,17 +6244,27 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH49" t="n">
+      <c r="AB49" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AC49" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO49" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18:00 - 18:15</t>
-        </is>
-      </c>
-      <c r="P50" s="3" t="inlineStr">
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -5939,11 +6274,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -5989,17 +6319,17 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH50" t="n">
-        <v>12</v>
+      <c r="AO50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18:15 - 18:30</t>
-        </is>
-      </c>
-      <c r="P51" s="3" t="inlineStr">
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -6009,16 +6339,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="U51" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6064,17 +6384,22 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH51" t="n">
-        <v>13</v>
+      <c r="AE51" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO51" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18:30 - 18:45</t>
-        </is>
-      </c>
-      <c r="P52" s="3" t="inlineStr">
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -6084,16 +6409,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S52" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="U52" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6144,17 +6459,32 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH52" t="n">
-        <v>14</v>
+      <c r="AF52" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AG52" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AH52" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO52" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18:45 - 19:00</t>
-        </is>
-      </c>
-      <c r="P53" s="3" t="inlineStr">
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -6164,11 +6494,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6219,17 +6544,32 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH53" t="n">
-        <v>13</v>
+      <c r="AF53" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AG53" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AH53" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO53" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:00 - 19:15</t>
-        </is>
-      </c>
-      <c r="P54" s="3" t="inlineStr">
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -6239,16 +6579,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="V54" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="W54" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6299,19 +6629,29 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH54" t="n">
-        <v>14</v>
+      <c r="AG54" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AH54" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI54" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:15 - 19:30</t>
-        </is>
-      </c>
-      <c r="P55" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>19:00 - 19:15</t>
         </is>
       </c>
       <c r="R55" s="3" t="inlineStr">
@@ -6319,11 +6659,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="X55" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6374,19 +6709,34 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH55" t="n">
-        <v>13</v>
+      <c r="AH55" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI55" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ55" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK55" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:30 - 19:45</t>
-        </is>
-      </c>
-      <c r="P56" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>19:15 - 19:30</t>
         </is>
       </c>
       <c r="R56" s="3" t="inlineStr">
@@ -6394,21 +6744,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="X56" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Y56" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="Z56" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6449,19 +6784,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH56" t="n">
-        <v>13</v>
+      <c r="AH56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN56" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO56" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45 - 20:00</t>
-        </is>
-      </c>
-      <c r="P57" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>19:30 - 19:45</t>
         </is>
       </c>
       <c r="R57" s="3" t="inlineStr">
@@ -6469,21 +6834,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Y57" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Z57" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AA57" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6519,19 +6869,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH57" t="n">
-        <v>12</v>
+      <c r="AH57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN57" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO57" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00 - 20:15</t>
-        </is>
-      </c>
-      <c r="P58" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>19:45 - 20:00</t>
         </is>
       </c>
       <c r="R58" s="3" t="inlineStr">
@@ -6539,21 +6919,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Y58" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Z58" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AA58" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6589,19 +6954,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH58" t="n">
-        <v>12</v>
+      <c r="AH58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN58" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO58" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20:15 - 20:30</t>
-        </is>
-      </c>
-      <c r="P59" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>20:00 - 20:15</t>
         </is>
       </c>
       <c r="R59" s="3" t="inlineStr">
@@ -6609,21 +7004,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Y59" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Z59" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AA59" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6659,19 +7039,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH59" t="n">
-        <v>12</v>
+      <c r="AH59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN59" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO59" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20:30 - 20:45</t>
-        </is>
-      </c>
-      <c r="P60" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>20:15 - 20:30</t>
         </is>
       </c>
       <c r="R60" s="3" t="inlineStr">
@@ -6679,21 +7089,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Y60" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="Z60" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AA60" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6729,19 +7124,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH60" t="n">
-        <v>12</v>
+      <c r="AH60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN60" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO60" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20:45 - 21:00</t>
-        </is>
-      </c>
-      <c r="P61" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>20:30 - 20:45</t>
         </is>
       </c>
       <c r="R61" s="3" t="inlineStr">
@@ -6749,11 +7174,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AA61" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6789,19 +7209,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH61" t="n">
-        <v>10</v>
+      <c r="AH61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN61" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO61" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21:00 - 21:15</t>
-        </is>
-      </c>
-      <c r="P62" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>20:45 - 21:00</t>
         </is>
       </c>
       <c r="R62" s="3" t="inlineStr">
@@ -6809,16 +7259,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S62" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AA62" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AB62" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6849,19 +7289,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH62" t="n">
-        <v>10</v>
+      <c r="AH62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN62" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO62" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21:15 - 21:30</t>
-        </is>
-      </c>
-      <c r="P63" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>21:00 - 21:15</t>
         </is>
       </c>
       <c r="R63" s="3" t="inlineStr">
@@ -6869,16 +7339,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AA63" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AB63" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6909,19 +7369,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH63" t="n">
-        <v>10</v>
+      <c r="AH63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN63" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO63" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21:30 - 21:45</t>
-        </is>
-      </c>
-      <c r="P64" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>21:15 - 21:30</t>
         </is>
       </c>
       <c r="R64" s="3" t="inlineStr">
@@ -6929,21 +7419,11 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AB64" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AC64" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AD64" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -6964,19 +7444,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH64" t="n">
-        <v>9</v>
+      <c r="AH64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN64" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21:45 - 22:00</t>
-        </is>
-      </c>
-      <c r="P65" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
+          <t>21:30 - 21:45</t>
         </is>
       </c>
       <c r="R65" s="3" t="inlineStr">
@@ -6984,12 +7494,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S65" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AC65" s="3" t="inlineStr">
+      <c r="AB65" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -7014,14 +7519,49 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH65" t="n">
-        <v>8</v>
+      <c r="AH65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN65" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22:00 - 22:15</t>
+          <t>21:45 - 22:00</t>
         </is>
       </c>
       <c r="R66" s="3" t="inlineStr">
@@ -7029,21 +7569,6 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="S66" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AC66" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AE66" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
       <c r="AF66" s="3" t="inlineStr">
         <is>
           <t>EN TURNO</t>
@@ -7054,137 +7579,227 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="AH66" t="n">
-        <v>6</v>
+      <c r="AH66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AI66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN66" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22:15 - 22:30</t>
-        </is>
-      </c>
-      <c r="R67" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AC67" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AF67" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AG67" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AH67" t="n">
-        <v>5</v>
+          <t>22:00 - 22:15</t>
+        </is>
+      </c>
+      <c r="AI67" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ67" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK67" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL67" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM67" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN67" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22:30 - 22:45</t>
-        </is>
-      </c>
-      <c r="R68" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="S68" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AC68" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AF68" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AG68" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AH68" t="n">
-        <v>5</v>
+          <t>22:15 - 22:30</t>
+        </is>
+      </c>
+      <c r="AI68" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ68" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK68" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL68" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM68" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN68" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22:45 - 23:00</t>
-        </is>
-      </c>
-      <c r="S69" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AG69" s="3" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="AH69" t="n">
-        <v>2</v>
+          <t>22:30 - 22:45</t>
+        </is>
+      </c>
+      <c r="AI69" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AJ69" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AK69" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AL69" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM69" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN69" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO69" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>23:00 - 23:15</t>
-        </is>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
+          <t>22:45 - 23:00</t>
+        </is>
+      </c>
+      <c r="AL70" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AM70" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AN70" s="3" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="AO70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23:15 - 23:30</t>
-        </is>
-      </c>
-      <c r="AH71" t="n">
+          <t>23:00 - 23:15</t>
+        </is>
+      </c>
+      <c r="AO71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23:30 - 23:45</t>
-        </is>
-      </c>
-      <c r="AH72" t="n">
+          <t>23:15 - 23:30</t>
+        </is>
+      </c>
+      <c r="AO72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>23:30 - 23:45</t>
+        </is>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>23:45 - 24:00</t>
         </is>
       </c>
-      <c r="AH73" t="n">
+      <c r="AO74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7199,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7210,1102 +7825,735 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Intervalos</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ROMINA JHINET ARAUJO MORALES</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>JUDELY AYDEE PINEDA VASQUEZ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>#</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06:00 - 06:15</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:15 - 06:30</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>06:00 - 06:15</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:30 - 06:45</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>06:15 - 06:30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:45 - 07:00</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+          <t>06:30 - 06:45</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:00 - 07:15</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
+          <t>06:45 - 07:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07:15 - 07:30</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
+          <t>07:00 - 07:15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07:30 - 07:45</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
+          <t>07:15 - 07:30</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07:45 - 08:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
+          <t>07:30 - 07:45</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08:00 - 08:15</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
+          <t>07:45 - 08:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08:15 - 08:30</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
+          <t>08:00 - 08:15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08:30 - 08:45</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
+          <t>08:15 - 08:30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:45 - 09:00</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
+          <t>08:30 - 08:45</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09:00 - 09:15</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
+          <t>08:45 - 09:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:15 - 09:30</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
+          <t>09:00 - 09:15</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:30 - 09:45</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
+          <t>09:15 - 09:30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09:45 - 10:00</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
+          <t>09:30 - 09:45</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:00 - 10:15</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
+          <t>09:45 - 10:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10:15 - 10:30</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
+          <t>10:00 - 10:15</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10:30 - 10:45</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
+          <t>10:15 - 10:30</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:45 - 11:00</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
+          <t>10:30 - 10:45</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11:00 - 11:15</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
+          <t>10:45 - 11:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11:15 - 11:30</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
+          <t>11:00 - 11:15</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:30 - 11:45</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
+          <t>11:15 - 11:30</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11:45 - 12:00</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
+          <t>11:30 - 11:45</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12:00 - 12:15</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
+          <t>11:45 - 12:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12:15 - 12:30</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
+          <t>12:00 - 12:15</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12:30 - 12:45</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2</v>
+          <t>12:15 - 12:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12:45 - 13:00</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2</v>
+          <t>12:30 - 12:45</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00 - 13:15</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2</v>
+          <t>12:45 - 13:00</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13:15 - 13:30</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
+          <t>13:00 - 13:15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:30 - 13:45</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2</v>
+          <t>13:15 - 13:30</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13:45 - 14:00</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
+          <t>13:30 - 13:45</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14:00 - 14:15</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
+          <t>13:45 - 14:00</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14:15 - 14:30</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
+          <t>14:00 - 14:15</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14:30 - 14:45</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2</v>
+          <t>14:15 - 14:30</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14:45 - 15:00</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
+          <t>14:30 - 14:45</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15:00 - 15:15</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
+          <t>14:45 - 15:00</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15:15 - 15:30</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2</v>
+          <t>15:00 - 15:15</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15:30 - 15:45</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
+          <t>15:15 - 15:30</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:45 - 16:00</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
+          <t>15:30 - 15:45</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16:00 - 16:15</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
+          <t>15:45 - 16:00</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16:15 - 16:30</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
+          <t>16:00 - 16:15</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16:30 - 16:45</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
+          <t>16:15 - 16:30</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:45 - 17:00</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
+          <t>16:30 - 16:45</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17:00 - 17:15</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
+          <t>16:45 - 17:00</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17:15 - 17:30</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>17:30 - 17:45</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17:45 - 18:00</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18:00 - 18:15</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18:15 - 18:30</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18:30 - 18:45</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18:45 - 19:00</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:00 - 19:15</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:15 - 19:30</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
+          <t>19:00 - 19:15</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:30 - 19:45</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
+          <t>19:15 - 19:30</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45 - 20:00</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
+          <t>19:30 - 19:45</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00 - 20:15</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
+          <t>19:45 - 20:00</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20:15 - 20:30</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
+          <t>20:00 - 20:15</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20:30 - 20:45</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
+          <t>20:15 - 20:30</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20:45 - 21:00</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
+          <t>20:30 - 20:45</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21:00 - 21:15</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+          <t>20:45 - 21:00</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21:15 - 21:30</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+          <t>21:00 - 21:15</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21:30 - 21:45</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+          <t>21:15 - 21:30</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21:45 - 22:00</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
+          <t>21:30 - 21:45</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22:00 - 22:15</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+          <t>21:45 - 22:00</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22:15 - 22:30</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
+          <t>22:00 - 22:15</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22:30 - 22:45</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
+          <t>22:15 - 22:30</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22:45 - 23:00</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+          <t>22:30 - 22:45</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>23:00 - 23:15</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+          <t>22:45 - 23:00</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23:15 - 23:30</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
+          <t>23:00 - 23:15</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23:30 - 23:45</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
+          <t>23:15 - 23:30</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>23:30 - 23:45</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>23:45 - 24:00</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="B74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8320,7 +8568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8331,1447 +8579,735 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Intervalos</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>FIORELA ARELLAN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROSARIO TAQUIRE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MOISES REYNOSO</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>YENNIFER SUAREZ</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>GUSTAVO TORRES</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>#</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06:00 - 06:15</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:15 - 06:30</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>06:00 - 06:15</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:30 - 06:45</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+          <t>06:15 - 06:30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:45 - 07:00</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
+          <t>06:30 - 06:45</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:00 - 07:15</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
+          <t>06:45 - 07:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07:15 - 07:30</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
+          <t>07:00 - 07:15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07:30 - 07:45</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
+          <t>07:15 - 07:30</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07:45 - 08:00</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
+          <t>07:30 - 07:45</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08:00 - 08:15</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
+          <t>07:45 - 08:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08:15 - 08:30</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
+          <t>08:00 - 08:15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08:30 - 08:45</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
+          <t>08:15 - 08:30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:45 - 09:00</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
+          <t>08:30 - 08:45</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09:00 - 09:15</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
+          <t>08:45 - 09:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:15 - 09:30</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
+          <t>09:00 - 09:15</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:30 - 09:45</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
+          <t>09:15 - 09:30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09:45 - 10:00</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
+          <t>09:30 - 09:45</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:00 - 10:15</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
+          <t>09:45 - 10:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10:15 - 10:30</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
+          <t>10:00 - 10:15</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10:30 - 10:45</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
+          <t>10:15 - 10:30</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:45 - 11:00</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
+          <t>10:30 - 10:45</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11:00 - 11:15</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2</v>
+          <t>10:45 - 11:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11:15 - 11:30</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
+          <t>11:00 - 11:15</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:30 - 11:45</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
+          <t>11:15 - 11:30</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11:45 - 12:00</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
+          <t>11:30 - 11:45</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12:00 - 12:15</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2</v>
+          <t>11:45 - 12:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12:15 - 12:30</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
+          <t>12:00 - 12:15</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12:30 - 12:45</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2</v>
+          <t>12:15 - 12:30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12:45 - 13:00</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
+          <t>12:30 - 12:45</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00 - 13:15</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
+          <t>12:45 - 13:00</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13:15 - 13:30</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
+          <t>13:00 - 13:15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:30 - 13:45</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
+          <t>13:15 - 13:30</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13:45 - 14:00</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
+          <t>13:30 - 13:45</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14:00 - 14:15</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>3</v>
+          <t>13:45 - 14:00</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14:15 - 14:30</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>3</v>
+          <t>14:00 - 14:15</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14:30 - 14:45</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>3</v>
+          <t>14:15 - 14:30</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14:45 - 15:00</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>3</v>
+          <t>14:30 - 14:45</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15:00 - 15:15</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>3</v>
+          <t>14:45 - 15:00</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15:15 - 15:30</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>3</v>
+          <t>15:00 - 15:15</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15:30 - 15:45</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
+          <t>15:15 - 15:30</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:45 - 16:00</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
+          <t>15:30 - 15:45</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16:00 - 16:15</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
+          <t>15:45 - 16:00</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16:15 - 16:30</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E43" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
+          <t>16:00 - 16:15</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16:30 - 16:45</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
+          <t>16:15 - 16:30</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:45 - 17:00</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E45" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
+          <t>16:30 - 16:45</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17:00 - 17:15</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
+          <t>16:45 - 17:00</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17:15 - 17:30</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E47" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>17:30 - 17:45</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E48" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>17:45 - 18:00</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18:00 - 18:15</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>18:15 - 18:30</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E51" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18:30 - 18:45</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>2</v>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18:45 - 19:00</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E53" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>2</v>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:00 - 19:15</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="E54" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>2</v>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:15 - 19:30</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
+          <t>19:00 - 19:15</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:30 - 19:45</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>2</v>
+          <t>19:15 - 19:30</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45 - 20:00</t>
-        </is>
-      </c>
-      <c r="D57" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F57" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>2</v>
+          <t>19:30 - 19:45</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00 - 20:15</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>2</v>
+          <t>19:45 - 20:00</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20:15 - 20:30</t>
-        </is>
-      </c>
-      <c r="D59" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F59" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
+          <t>20:00 - 20:15</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20:30 - 20:45</t>
-        </is>
-      </c>
-      <c r="D60" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F60" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>2</v>
+          <t>20:15 - 20:30</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20:45 - 21:00</t>
-        </is>
-      </c>
-      <c r="D61" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F61" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
+          <t>20:30 - 20:45</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21:00 - 21:15</t>
-        </is>
-      </c>
-      <c r="D62" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F62" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>2</v>
+          <t>20:45 - 21:00</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21:15 - 21:30</t>
-        </is>
-      </c>
-      <c r="D63" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F63" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>2</v>
+          <t>21:00 - 21:15</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21:30 - 21:45</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F64" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2</v>
+          <t>21:15 - 21:30</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21:45 - 22:00</t>
-        </is>
-      </c>
-      <c r="D65" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F65" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
+          <t>21:30 - 21:45</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22:00 - 22:15</t>
-        </is>
-      </c>
-      <c r="D66" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F66" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>2</v>
+          <t>21:45 - 22:00</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22:15 - 22:30</t>
-        </is>
-      </c>
-      <c r="D67" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F67" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
+          <t>22:00 - 22:15</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22:30 - 22:45</t>
-        </is>
-      </c>
-      <c r="D68" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F68" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>2</v>
+          <t>22:15 - 22:30</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22:45 - 23:00</t>
-        </is>
-      </c>
-      <c r="D69" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F69" s="5" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>2</v>
+          <t>22:30 - 22:45</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>23:00 - 23:15</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
+          <t>22:45 - 23:00</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23:15 - 23:30</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
+          <t>23:00 - 23:15</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23:30 - 23:45</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
+          <t>23:15 - 23:30</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>23:30 - 23:45</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>23:45 - 24:00</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="B74" t="n">
         <v>0</v>
       </c>
     </row>
